--- a/meetrapporten/vision tests/Intensity/Test.xlsx
+++ b/meetrapporten/vision tests/Intensity/Test.xlsx
@@ -404,8 +404,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1083931296"/>
-        <c:axId val="-1083932384"/>
+        <c:axId val="-1058184192"/>
+        <c:axId val="-1058184736"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -538,7 +538,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1083931296"/>
+        <c:axId val="-1058184192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,7 +581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083932384"/>
+        <c:crossAx val="-1058184736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -589,7 +589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1083932384"/>
+        <c:axId val="-1058184736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -640,7 +640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083931296"/>
+        <c:crossAx val="-1058184192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1021,8 +1021,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1083932928"/>
-        <c:axId val="-1083953056"/>
+        <c:axId val="-1058185280"/>
+        <c:axId val="-1058183104"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1155,7 +1155,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1083932928"/>
+        <c:axId val="-1058185280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083953056"/>
+        <c:crossAx val="-1058183104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1206,7 +1206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1083953056"/>
+        <c:axId val="-1058183104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083932928"/>
+        <c:crossAx val="-1058185280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1638,8 +1638,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1083931840"/>
-        <c:axId val="-1083959584"/>
+        <c:axId val="-1058180384"/>
+        <c:axId val="-1058181472"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1772,7 +1772,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1083931840"/>
+        <c:axId val="-1058180384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1815,7 +1815,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083959584"/>
+        <c:crossAx val="-1058181472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1823,7 +1823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1083959584"/>
+        <c:axId val="-1058181472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +1874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083931840"/>
+        <c:crossAx val="-1058180384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2255,8 +2255,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1083944896"/>
-        <c:axId val="-1083930752"/>
+        <c:axId val="-1058180928"/>
+        <c:axId val="-1058179840"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2389,7 +2389,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1083944896"/>
+        <c:axId val="-1058180928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +2432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083930752"/>
+        <c:crossAx val="-1058179840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2440,7 +2440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1083930752"/>
+        <c:axId val="-1058179840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,7 +2491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083944896"/>
+        <c:crossAx val="-1058180928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2872,8 +2872,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1083945984"/>
-        <c:axId val="-1083947616"/>
+        <c:axId val="-1269979952"/>
+        <c:axId val="-1269978864"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3006,7 +3006,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1083945984"/>
+        <c:axId val="-1269979952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3049,7 +3049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083947616"/>
+        <c:crossAx val="-1269978864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3057,7 +3057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1083947616"/>
+        <c:axId val="-1269978864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3108,7 +3108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083945984"/>
+        <c:crossAx val="-1269979952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6126,7 +6126,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B1:F12" totalsRowCount="1">
-  <autoFilter ref="B1:F12"/>
+  <autoFilter ref="B1:F11"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Cycles" totalsRowFunction="custom">
       <totalsRowFormula>SUM(B2:B11)</totalsRowFormula>
@@ -6152,7 +6152,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B15:F26" totalsRowCount="1">
-  <autoFilter ref="B15:F26"/>
+  <autoFilter ref="B15:F25"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Cycles" totalsRowFunction="custom">
       <totalsRowFormula>SUM(B16:B25)</totalsRowFormula>
@@ -6178,7 +6178,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B29:F40" totalsRowCount="1">
-  <autoFilter ref="B29:F40"/>
+  <autoFilter ref="B29:F39"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Cycles" totalsRowFunction="custom">
       <totalsRowFormula>SUM(B30:B39)</totalsRowFormula>
@@ -6204,7 +6204,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B43:F54" totalsRowCount="1">
-  <autoFilter ref="B43:F54"/>
+  <autoFilter ref="B43:F53"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Cycles" totalsRowFunction="custom">
       <totalsRowFormula>SUM(B44:B53)</totalsRowFormula>
@@ -6558,8 +6558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6625,11 +6625,11 @@
         <v>1.4752299999999999E-2</v>
       </c>
       <c r="E2">
-        <f>C2-D2</f>
+        <f t="shared" ref="E2:E11" si="0">C2-D2</f>
         <v>5.6441900000000003E-2</v>
       </c>
       <c r="F2">
-        <f>E2/B2</f>
+        <f t="shared" ref="F2:F11" si="1">E2/B2</f>
         <v>1.1288380000000001E-2</v>
       </c>
       <c r="P2" t="s">
@@ -6667,11 +6667,11 @@
         <v>3.0140699999999999E-2</v>
       </c>
       <c r="E3">
-        <f>C3-D3</f>
+        <f t="shared" si="0"/>
         <v>7.9462300000000013E-2</v>
       </c>
       <c r="F3">
-        <f>E3/B3</f>
+        <f t="shared" si="1"/>
         <v>7.946230000000002E-3</v>
       </c>
       <c r="P3" t="s">
@@ -6709,11 +6709,11 @@
         <v>4.4680299999999999E-2</v>
       </c>
       <c r="E4">
-        <f>C4-D4</f>
+        <f t="shared" si="0"/>
         <v>0.11055670000000001</v>
       </c>
       <c r="F4">
-        <f>E4/B4</f>
+        <f t="shared" si="1"/>
         <v>7.3704466666666673E-3</v>
       </c>
       <c r="P4" t="s">
@@ -6751,11 +6751,11 @@
         <v>5.8264299999999998E-2</v>
       </c>
       <c r="E5">
-        <f>C5-D5</f>
+        <f t="shared" si="0"/>
         <v>0.15158670000000002</v>
       </c>
       <c r="F5">
-        <f>E5/B5</f>
+        <f t="shared" si="1"/>
         <v>7.5793350000000013E-3</v>
       </c>
       <c r="P5" t="s">
@@ -6793,11 +6793,11 @@
         <v>7.5501799999999994E-2</v>
       </c>
       <c r="E6">
-        <f>C6-D6</f>
+        <f t="shared" si="0"/>
         <v>0.19990419999999998</v>
       </c>
       <c r="F6">
-        <f>E6/B6</f>
+        <f t="shared" si="1"/>
         <v>7.9961679999999997E-3</v>
       </c>
       <c r="P6" t="s">
@@ -6835,11 +6835,11 @@
         <v>9.3568999999999999E-2</v>
       </c>
       <c r="E7">
-        <f>C7-D7</f>
+        <f t="shared" si="0"/>
         <v>0.23046299999999997</v>
       </c>
       <c r="F7">
-        <f>E7/B7</f>
+        <f t="shared" si="1"/>
         <v>7.682099999999999E-3</v>
       </c>
       <c r="P7" t="s">
@@ -6877,11 +6877,11 @@
         <v>0.110455</v>
       </c>
       <c r="E8">
-        <f>C8-D8</f>
+        <f t="shared" si="0"/>
         <v>0.27015800000000001</v>
       </c>
       <c r="F8">
-        <f>E8/B8</f>
+        <f t="shared" si="1"/>
         <v>7.7188000000000005E-3</v>
       </c>
       <c r="P8" t="s">
@@ -6903,11 +6903,11 @@
         <v>0.12191399999999999</v>
       </c>
       <c r="E9">
-        <f>C9-D9</f>
+        <f t="shared" si="0"/>
         <v>0.31559099999999995</v>
       </c>
       <c r="F9">
-        <f>E9/B9</f>
+        <f t="shared" si="1"/>
         <v>7.8897749999999982E-3</v>
       </c>
     </row>
@@ -6922,11 +6922,11 @@
         <v>0.14221400000000001</v>
       </c>
       <c r="E10">
-        <f>C10-D10</f>
+        <f t="shared" si="0"/>
         <v>0.34463899999999997</v>
       </c>
       <c r="F10">
-        <f>E10/B10</f>
+        <f t="shared" si="1"/>
         <v>7.658644444444444E-3</v>
       </c>
     </row>
@@ -6941,11 +6941,11 @@
         <v>0.15729799999999999</v>
       </c>
       <c r="E11">
-        <f>C11-D11</f>
+        <f t="shared" si="0"/>
         <v>0.38534799999999997</v>
       </c>
       <c r="F11">
-        <f>E11/B11</f>
+        <f t="shared" si="1"/>
         <v>7.7069599999999997E-3</v>
       </c>
     </row>
@@ -7014,11 +7014,11 @@
         <v>3.1161899999999999E-2</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E53" si="0">C16-D16</f>
+        <f t="shared" ref="E16:E53" si="2">C16-D16</f>
         <v>7.6644099999999993E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F63" si="1">E16/B16</f>
+        <f t="shared" ref="F16:F63" si="3">E16/B16</f>
         <v>7.6644099999999991E-3</v>
       </c>
     </row>
@@ -7033,11 +7033,11 @@
         <v>6.59748E-2</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16914319999999999</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.45716E-3</v>
       </c>
     </row>
@@ -7052,11 +7052,11 @@
         <v>9.8697699999999999E-2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.22505330000000001</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5017766666666671E-3</v>
       </c>
     </row>
@@ -7071,11 +7071,11 @@
         <v>0.12504699999999999</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.30801200000000006</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.7003000000000019E-3</v>
       </c>
     </row>
@@ -7090,11 +7090,11 @@
         <v>0.16325000000000001</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.36769499999999999</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.3539E-3</v>
       </c>
     </row>
@@ -7109,11 +7109,11 @@
         <v>0.19084300000000001</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.46494999999999997</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.7491666666666664E-3</v>
       </c>
     </row>
@@ -7128,11 +7128,11 @@
         <v>0.21942400000000001</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.53443599999999991</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.6347999999999989E-3</v>
       </c>
     </row>
@@ -7147,11 +7147,11 @@
         <v>0.248945</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.62100900000000003</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.7626125000000001E-3</v>
       </c>
     </row>
@@ -7166,11 +7166,11 @@
         <v>0.27406599999999998</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.68617600000000012</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.624177777777779E-3</v>
       </c>
     </row>
@@ -7185,11 +7185,11 @@
         <v>0.31695800000000002</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.75229199999999996</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5229199999999998E-3</v>
       </c>
     </row>
@@ -7258,11 +7258,11 @@
         <v>4.6658900000000003E-2</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11179310000000001</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4528733333333336E-3</v>
       </c>
     </row>
@@ -7277,11 +7277,11 @@
         <v>9.2405200000000007E-2</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.23233479999999995</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.7444933333333322E-3</v>
       </c>
     </row>
@@ -7296,11 +7296,11 @@
         <v>0.14200299999999999</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.3347</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4377777777777775E-3</v>
       </c>
     </row>
@@ -7315,11 +7315,11 @@
         <v>0.19303100000000001</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.49811900000000003</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.3019833333333338E-3</v>
       </c>
     </row>
@@ -7334,11 +7334,11 @@
         <v>0.23665</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.58596599999999999</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8128799999999995E-3</v>
       </c>
     </row>
@@ -7353,11 +7353,11 @@
         <v>0.28770800000000002</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.69414599999999993</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.7127333333333326E-3</v>
       </c>
     </row>
@@ -7372,11 +7372,11 @@
         <v>0.33443400000000001</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.84865599999999997</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0824380952380943E-3</v>
       </c>
     </row>
@@ -7391,11 +7391,11 @@
         <v>0.38119199999999998</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.96820799999999996</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0683999999999999E-3</v>
       </c>
     </row>
@@ -7410,11 +7410,11 @@
         <v>0.43837900000000002</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1067909999999999</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1984518518518502E-3</v>
       </c>
     </row>
@@ -7429,11 +7429,11 @@
         <v>0.48779800000000001</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.187962</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9197466666666664E-3</v>
       </c>
     </row>
@@ -7502,11 +7502,11 @@
         <v>6.2715800000000002E-2</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16830519999999999</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.4152599999999991E-3</v>
       </c>
     </row>
@@ -7521,11 +7521,11 @@
         <v>0.13050100000000001</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.31783099999999997</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9457749999999987E-3</v>
       </c>
     </row>
@@ -7540,11 +7540,11 @@
         <v>0.20547099999999999</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.473885</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8980833333333333E-3</v>
       </c>
     </row>
@@ -7559,11 +7559,11 @@
         <v>0.25697700000000001</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.69200300000000003</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.6500375000000008E-3</v>
       </c>
     </row>
@@ -7578,11 +7578,11 @@
         <v>0.313274</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.84762599999999999</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.4762599999999994E-3</v>
       </c>
     </row>
@@ -7597,11 +7597,11 @@
         <v>0.37887799999999999</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.98245199999999988</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1870999999999992E-3</v>
       </c>
     </row>
@@ -7616,11 +7616,11 @@
         <v>0.43768499999999999</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1405050000000001</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1464642857142864E-3</v>
       </c>
     </row>
@@ -7635,11 +7635,11 @@
         <v>0.50928799999999996</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.300362</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1272624999999994E-3</v>
       </c>
     </row>
@@ -7654,11 +7654,11 @@
         <v>0.58077999999999996</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4868100000000002</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.2600555555555569E-3</v>
       </c>
     </row>
@@ -7673,11 +7673,11 @@
         <v>0.64848499999999998</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.606865</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0343250000000001E-3</v>
       </c>
     </row>
@@ -7750,7 +7750,7 @@
         <v>0.20624449999999997</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.2497799999999982E-3</v>
       </c>
     </row>
@@ -7765,11 +7765,11 @@
         <v>0.16228899999999999</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:E63" si="2">C59-D59</f>
+        <f t="shared" ref="E59:E63" si="4">C59-D59</f>
         <v>0.40799399999999997</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1598799999999996E-3</v>
       </c>
     </row>
@@ -7784,11 +7784,11 @@
         <v>0.24784400000000001</v>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.63421700000000003</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.456226666666667E-3</v>
       </c>
     </row>
@@ -7803,11 +7803,11 @@
         <v>0.31466499999999997</v>
       </c>
       <c r="E61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.79861500000000007</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9861500000000009E-3</v>
       </c>
     </row>
@@ -7822,11 +7822,11 @@
         <v>0.40359200000000001</v>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0078480000000001</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0627839999999999E-3</v>
       </c>
     </row>
@@ -7841,11 +7841,11 @@
         <v>0.48452699999999999</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.187543</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.916953333333334E-3</v>
       </c>
     </row>
@@ -7902,7 +7902,7 @@
         <v>1.708564</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F67" si="3">E66/B66</f>
+        <f t="shared" ref="F66:F67" si="5">E66/B66</f>
         <v>7.5936177777777775E-3</v>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
         <v>1.9251309999999999</v>
       </c>
       <c r="F67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.7005239999999994E-3</v>
       </c>
     </row>
